--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sele</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="H2">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>547.5494996739098</v>
+        <v>2346.678975031562</v>
       </c>
       <c r="R2">
-        <v>547.5494996739098</v>
+        <v>21120.11077528406</v>
       </c>
       <c r="S2">
-        <v>0.687726860841511</v>
+        <v>0.8831949413017598</v>
       </c>
       <c r="T2">
-        <v>0.687726860841511</v>
+        <v>0.88319494130176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="H3">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>157.3486995989417</v>
+        <v>191.7913415237779</v>
       </c>
       <c r="R3">
-        <v>157.3486995989417</v>
+        <v>1726.122073714001</v>
       </c>
       <c r="S3">
-        <v>0.1976313142412142</v>
+        <v>0.07218249467505479</v>
       </c>
       <c r="T3">
-        <v>0.1976313142412142</v>
+        <v>0.07218249467505482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7.879565666666667</v>
+      </c>
+      <c r="H4">
+        <v>23.638697</v>
+      </c>
+      <c r="I4">
+        <v>0.9977172793687663</v>
+      </c>
+      <c r="J4">
+        <v>0.9977172793687664</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>14.277234</v>
+      </c>
+      <c r="N4">
+        <v>42.831702</v>
+      </c>
+      <c r="O4">
+        <v>0.04243671455578994</v>
+      </c>
+      <c r="P4">
+        <v>0.04243671455578994</v>
+      </c>
+      <c r="Q4">
+        <v>112.498402841366</v>
+      </c>
+      <c r="R4">
+        <v>1012.485625572294</v>
+      </c>
+      <c r="S4">
+        <v>0.04233984339195166</v>
+      </c>
+      <c r="T4">
+        <v>0.04233984339195167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.018028</v>
+      </c>
+      <c r="H5">
+        <v>0.054084</v>
+      </c>
+      <c r="I5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="J5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>297.8183156666666</v>
+      </c>
+      <c r="N5">
+        <v>893.4549469999999</v>
+      </c>
+      <c r="O5">
+        <v>0.8852156413092672</v>
+      </c>
+      <c r="P5">
+        <v>0.8852156413092673</v>
+      </c>
+      <c r="Q5">
+        <v>5.369068594838666</v>
+      </c>
+      <c r="R5">
+        <v>48.321617353548</v>
+      </c>
+      <c r="S5">
+        <v>0.002020700007507367</v>
+      </c>
+      <c r="T5">
+        <v>0.002020700007507367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6.60398961687429</v>
-      </c>
-      <c r="H4">
-        <v>6.60398961687429</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>13.8211477070986</v>
-      </c>
-      <c r="N4">
-        <v>13.8211477070986</v>
-      </c>
-      <c r="O4">
-        <v>0.1146418249172748</v>
-      </c>
-      <c r="P4">
-        <v>0.1146418249172748</v>
-      </c>
-      <c r="Q4">
-        <v>91.27471595096505</v>
-      </c>
-      <c r="R4">
-        <v>91.27471595096505</v>
-      </c>
-      <c r="S4">
-        <v>0.1146418249172748</v>
-      </c>
-      <c r="T4">
-        <v>0.1146418249172748</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.018028</v>
+      </c>
+      <c r="H6">
+        <v>0.054084</v>
+      </c>
+      <c r="I6">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="J6">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.34034433333333</v>
+      </c>
+      <c r="N6">
+        <v>73.021033</v>
+      </c>
+      <c r="O6">
+        <v>0.07234764413494278</v>
+      </c>
+      <c r="P6">
+        <v>0.0723476441349428</v>
+      </c>
+      <c r="Q6">
+        <v>0.4388077276413333</v>
+      </c>
+      <c r="R6">
+        <v>3.949269548772</v>
+      </c>
+      <c r="S6">
+        <v>0.0001651494598879821</v>
+      </c>
+      <c r="T6">
+        <v>0.0001651494598879822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.018028</v>
+      </c>
+      <c r="H7">
+        <v>0.054084</v>
+      </c>
+      <c r="I7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="J7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.277234</v>
+      </c>
+      <c r="N7">
+        <v>42.831702</v>
+      </c>
+      <c r="O7">
+        <v>0.04243671455578994</v>
+      </c>
+      <c r="P7">
+        <v>0.04243671455578994</v>
+      </c>
+      <c r="Q7">
+        <v>0.257389974552</v>
+      </c>
+      <c r="R7">
+        <v>2.316509770968</v>
+      </c>
+      <c r="S7">
+        <v>9.68711638382739E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.687116383827391E-05</v>
       </c>
     </row>
   </sheetData>
